--- a/ExampleData/CompositionCalculations-Duplex-2021Feb23.xlsx
+++ b/ExampleData/CompositionCalculations-Duplex-2021Feb23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/creuzige/Documents/NIST_Research/Mines-XRD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/creuzige/Documents/NIST_Research/GitHub/AusteniteCalculator/ExampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34258C0-EF90-1A43-A48A-9A73CF42E3CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96838B73-823C-B740-9241-07E122D3A840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="4400" windowWidth="29220" windowHeight="14800" xr2:uid="{D2F6E826-F97C-2D48-8152-9DD7F72B6B4D}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
